--- a/Progress2022.xlsx
+++ b/Progress2022.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BHK\CODE2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Spring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="1" r:id="rId1"/>
-    <sheet name="Spring Framework" sheetId="2" r:id="rId2"/>
-    <sheet name="Flutter" sheetId="3" r:id="rId3"/>
-    <sheet name="SpringBoot" sheetId="4" r:id="rId4"/>
+    <sheet name="Java" sheetId="5" r:id="rId2"/>
+    <sheet name="Spring Framework" sheetId="2" r:id="rId3"/>
+    <sheet name="Flutter" sheetId="3" r:id="rId4"/>
+    <sheet name="SpringBoot" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Core Container</t>
   </si>
@@ -131,6 +132,180 @@
   </si>
   <si>
     <t>Advice that surrounds a join point such as a method invocation. This is the most powerful kind of advice. Around advice can perform custom behavior before and after the method invocation. It is also responsible for choosing whether to proceed to the join point or to shortcut the advised method execution by returning its own return value or throwing an exception.</t>
+  </si>
+  <si>
+    <t>Creater</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>Object Relational Mapping (i.e Hibernate, JDO with JPA)</t>
+  </si>
+  <si>
+    <t>OXM</t>
+  </si>
+  <si>
+    <t>Object XML Mapping</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>Java Messaging Service</t>
+  </si>
+  <si>
+    <t>Rod Jhonson 2002</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 James Ghosling Sun Microsystems Oracle Corporation </t>
+  </si>
+  <si>
+    <t>java 1.0</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>slilk, jolt, revolutionary, DNA, dynamic, java</t>
+  </si>
+  <si>
+    <t>name of island in indonesia, first coffe discovery</t>
+  </si>
+  <si>
+    <t>jvm</t>
+  </si>
+  <si>
+    <t>jva virtual machine, write compile and run</t>
+  </si>
+  <si>
+    <t>jdk</t>
+  </si>
+  <si>
+    <t>java development kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javac </t>
+  </si>
+  <si>
+    <t>java compiler</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>differenct jvm same output bytecode</t>
+  </si>
+  <si>
+    <t>RORA</t>
+  </si>
+  <si>
+    <t>right once run anywhere</t>
+  </si>
+  <si>
+    <t>platform independent</t>
+  </si>
+  <si>
+    <t>can run on any system or os</t>
+  </si>
+  <si>
+    <t>bytecode</t>
+  </si>
+  <si>
+    <t>intermediate code between source code and machine code (native code)</t>
+  </si>
+  <si>
+    <t>jre</t>
+  </si>
+  <si>
+    <t>java run time envirenment inside jdk for jvm</t>
+  </si>
+  <si>
+    <t>garbage collector</t>
+  </si>
+  <si>
+    <t>delete the unused objects</t>
+  </si>
+  <si>
+    <t>git config -l, -list</t>
+  </si>
+  <si>
+    <t>show user settings</t>
+  </si>
+  <si>
+    <t>git config --global --get user.name</t>
+  </si>
+  <si>
+    <t>get user name</t>
+  </si>
+  <si>
+    <t>git config --global --get user.email</t>
+  </si>
+  <si>
+    <t>get user email</t>
+  </si>
+  <si>
+    <t>git branch --all</t>
+  </si>
+  <si>
+    <t>show all branches on respository</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/userName/repoName</t>
+  </si>
+  <si>
+    <t>cone repo from a github account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git add . </t>
+  </si>
+  <si>
+    <t>make changes final to push</t>
+  </si>
+  <si>
+    <t>git commit -m "commit-message"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark changes message </t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/YOUR-USERNAME/YOUR-REPOSITORY-NAME.git</t>
+  </si>
+  <si>
+    <t>add newly created repo to github</t>
+  </si>
+  <si>
+    <t>git push --set -upstream origin my-repo</t>
+  </si>
+  <si>
+    <t>push branch to repository</t>
+  </si>
+  <si>
+    <t>git checkout -b master origin/master</t>
+  </si>
+  <si>
+    <t>switch to a branch</t>
+  </si>
+  <si>
+    <t>git merge --no-ff master</t>
+  </si>
+  <si>
+    <t>merge master with current selected branch</t>
+  </si>
+  <si>
+    <t>git -d branchName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove branch </t>
+  </si>
+  <si>
+    <t>JdbcTemplate</t>
+  </si>
+  <si>
+    <t>provides simple db access with small code</t>
   </si>
 </sst>
 </file>
@@ -185,16 +360,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,197 +653,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="118.140625" customWidth="1"/>
+    <col min="1" max="1" width="72.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="B18 B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.73046875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="118.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -678,13 +1092,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="118.1328125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="117.85546875" customWidth="1"/>
+    <col min="1" max="1" width="117.86328125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progress2022.xlsx
+++ b/Progress2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GIT" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
   <si>
     <t>Core Container</t>
   </si>
@@ -306,6 +306,324 @@
   </si>
   <si>
     <t>provides simple db access with small code</t>
+  </si>
+  <si>
+    <t>Configuration Metadata</t>
+  </si>
+  <si>
+    <t>configuration metadata represents how you, as an application developer, tell the Spring container to instantiate, configure, and assemble the objects in your application, Three ways we can supply Configuration Metadata to Spring IoC container 
+1. XML-based configuration
+2. Annotation-based configuration
+3. Java-based configuration</t>
+  </si>
+  <si>
+    <t>Bean life cycle</t>
+  </si>
+  <si>
+    <t>using interface -&gt; initializingBean and Disposeablebean</t>
+  </si>
+  <si>
+    <t>using annotations -&gt; PostConstruct, PreDistroy</t>
+  </si>
+  <si>
+    <t>using init method, destroy method -&gt; init-method, distroy-method</t>
+  </si>
+  <si>
+    <t>Autowiring</t>
+  </si>
+  <si>
+    <t>using -&gt; XML and Annotation</t>
+  </si>
+  <si>
+    <t>By XML -&gt; no, byName, ByType, constructor, autodetect</t>
+  </si>
+  <si>
+    <t>By Annotation -&gt; @Autowired</t>
+  </si>
+  <si>
+    <t>disadvantage -&gt; no control of programmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Language </t>
+  </si>
+  <si>
+    <t>1970 -&gt; Dennis Ritchie, BCPL -&gt; B -&gt;  C -&gt; C++ -&gt; Java -&gt; C#, Android, Kotlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCPL </t>
+  </si>
+  <si>
+    <t>Basic Combined Programming Language -&gt; Martin Richards 1967</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Ken Thompson 1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++ </t>
+  </si>
+  <si>
+    <t>Bjarne Stroustrup  1979</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>first called oak then renamed to java in 1995</t>
+  </si>
+  <si>
+    <t>software program that is developed for use on a particular platform or device,                                                            Native apps are compiled to run directly on the application. When you compile native mobile apps, the source code (human-readable) is actually converted into binary code (machine-readable) and it executes from there. With non-native apps, the source code is not compiled directly into binary code</t>
+  </si>
+  <si>
+    <t>cross platform applications</t>
+  </si>
+  <si>
+    <t>hybrid applications</t>
+  </si>
+  <si>
+    <t>native applications</t>
+  </si>
+  <si>
+    <t>created to run on multiple devices and OS's</t>
+  </si>
+  <si>
+    <t>created to run on mobile as well as on web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytecode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytecode is intermediate code between source code and machine code that can run on any platform having platform oriented  jvm installed </t>
+  </si>
+  <si>
+    <t>indentifiers</t>
+  </si>
+  <si>
+    <t>names given to variables, methods, classes etc</t>
+  </si>
+  <si>
+    <t>defines accesibility, default, public, protected, private</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>single line comment "//", multiline "/* line 1, line 2 */" document  /* line 1 * line 2 */"</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>floating numbrs</t>
+  </si>
+  <si>
+    <t>integers numbers</t>
+  </si>
+  <si>
+    <t>byte=1, short=2, int=4, long=8</t>
+  </si>
+  <si>
+    <t>float=4, double=8</t>
+  </si>
+  <si>
+    <t>char=2</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>when two types are compatible and destination is greater than source</t>
+  </si>
+  <si>
+    <t>widening converstion</t>
+  </si>
+  <si>
+    <t>narrowing conversion</t>
+  </si>
+  <si>
+    <t>when two destination is smaller than source</t>
+  </si>
+  <si>
+    <t>access modifiers</t>
+  </si>
+  <si>
+    <t>static variable</t>
+  </si>
+  <si>
+    <t>belongs to class, accessible by class name, once memory allocation, same for all objects, we can not declare, public or private or protected or static variables inside method</t>
+  </si>
+  <si>
+    <t>static methods</t>
+  </si>
+  <si>
+    <t>static keyword</t>
+  </si>
+  <si>
+    <t>static keyword is used for memory optimization, resides inside heap memory</t>
+  </si>
+  <si>
+    <t>static blocks</t>
+  </si>
+  <si>
+    <t>used to initialize static fields, loads once when class loads before main method, and constructors</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>final keyword makes things unchangeable, varibels, mehthods, class</t>
+  </si>
+  <si>
+    <t>final variable</t>
+  </si>
+  <si>
+    <t>can not be changed once initialized, unintialized final variable called blank final</t>
+  </si>
+  <si>
+    <t>blongs to class, accessible by class name, cant use non static members, this and super keyword can not be used inside static method, cant be overrided but inherited</t>
+  </si>
+  <si>
+    <t>final method</t>
+  </si>
+  <si>
+    <t>cant be overrided but inherited</t>
+  </si>
+  <si>
+    <t>final class</t>
+  </si>
+  <si>
+    <t>cant be extended</t>
+  </si>
+  <si>
+    <t>this keyword</t>
+  </si>
+  <si>
+    <t>this keyword is the reference to the current objec, can be used with variable, method, constructor</t>
+  </si>
+  <si>
+    <t>Inner classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two types, static and non static </t>
+  </si>
+  <si>
+    <t>non static</t>
+  </si>
+  <si>
+    <t>three types, member inner class, local inner class, anonymous inner class</t>
+  </si>
+  <si>
+    <t>method overloading</t>
+  </si>
+  <si>
+    <t>methods with same name but with diff number of arguments and there return type may or man not be same is called method overloading, within same class</t>
+  </si>
+  <si>
+    <t>method overriding</t>
+  </si>
+  <si>
+    <t>a method with same signature and return type as in parent class is called method overriding, private methods not overrided, private class can not be extended</t>
+  </si>
+  <si>
+    <t>public modifier</t>
+  </si>
+  <si>
+    <t>accesible within and outside of package</t>
+  </si>
+  <si>
+    <t>defalut modifer</t>
+  </si>
+  <si>
+    <t>only within same package</t>
+  </si>
+  <si>
+    <t>private modifier</t>
+  </si>
+  <si>
+    <t>withis same class, private method cant be overrided but inherited</t>
+  </si>
+  <si>
+    <t>polymorphisism</t>
+  </si>
+  <si>
+    <t>doing same thing in diff ways, two types,  compile time and run time, compile time is achieved by method overloading and run time is achieved by method overriding</t>
+  </si>
+  <si>
+    <t>upcasting</t>
+  </si>
+  <si>
+    <t>refernce variable of parent and object of child</t>
+  </si>
+  <si>
+    <t>refernce variable of child and object of parent</t>
+  </si>
+  <si>
+    <t>downcasting</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>declared with abstract keyword, has abstract and non abstract mehtods, constructor and final variables</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>abstract, static, default and private methods, static final variables cant have constructor, can not be initialized, one interface can extend other interface</t>
+  </si>
+  <si>
+    <t>autoboxing</t>
+  </si>
+  <si>
+    <t>primitive types to Wrapper class object</t>
+  </si>
+  <si>
+    <t>unboxing</t>
+  </si>
+  <si>
+    <t>wrapper class to primitive types</t>
+  </si>
+  <si>
+    <t>call by value</t>
+  </si>
+  <si>
+    <t>actual value do not change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call by reference </t>
+  </si>
+  <si>
+    <t>reference changes</t>
+  </si>
+  <si>
+    <t>String class</t>
+  </si>
+  <si>
+    <t>StringBuffer</t>
+  </si>
+  <si>
+    <t>string class is immutable -&gt; cant be changed once created b/c String class is final</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>not thread safe, slower than StringBuffer, resides in constant pool</t>
+  </si>
+  <si>
+    <t>mutable and thread safe, resides in heap memory</t>
+  </si>
+  <si>
+    <t>java regex</t>
+  </si>
+  <si>
+    <t>defines patterns to manipulate and validate strings, MathResutl Interface and 2 classes Matcher and Pattern</t>
   </si>
 </sst>
 </file>
@@ -358,13 +676,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,6 +687,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,108 +996,108 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="72.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="72.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -768,208 +1108,597 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.73046875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="25.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="6">
         <v>1996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B35:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -982,7 +1711,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -995,7 +1724,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1003,7 +1732,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1011,7 +1740,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1019,7 +1748,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1027,7 +1756,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1035,7 +1764,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1043,7 +1772,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1051,7 +1780,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1059,7 +1788,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1067,7 +1796,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1075,11 +1804,75 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
